--- a/data/ROS_metadata_MEGA.xlsx
+++ b/data/ROS_metadata_MEGA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_lab/Projects/ROS_focused/HOOH_dynamics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B5C941-8BF8-7F44-AEEC-0AE35B2F4F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E7302E-D1DC-9A4B-989D-3EA5260C5397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="880" windowWidth="23220" windowHeight="14640" activeTab="1" xr2:uid="{7ACDE501-5141-0745-AE32-33FE23607C69}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="178">
   <si>
     <t>source</t>
   </si>
@@ -593,10 +593,19 @@
     <t>AMPA and MHM abiotic HOOH  - zero light. Ambient temp? replicates, The media is called minimal heterotroph media (MHM), it is the same saltwater media we use for pro with an added 10x the trace metals and ~24uM acetate as a carbon source.</t>
   </si>
   <si>
-    <t>Vibriot cat mutants in HOOH - . Not in light. two sets of growth curve data for my vibrio WT and catalase/oxyR mutants without HOOH. One only goes through 24 hours, the other through 90 hours. I've also attached the cell count and HOOH data for when I add 1500nM HOOH at T24 of growth and then monitor it for 72 hours. </t>
-  </si>
-  <si>
     <t>8 transfers of Pro to no additional N media.  BCC-transfersNoN.  rep1-2 = bio repA, rep3-4 = biorepB, rep5-6 = biorepC.  growth data for Vol1 (MIT9215) in AMP-MN (minimum nitrogen AMP media)  over consecutive transfers. The data is formatted as the technical (1,2) replicates for each biological replicate (a,b,c)  (n=3).The attached file contains growth data for Vol1 (MIT9215) in AMP-MN over about 7 or 8 consecutive transfers. The data is formatted as the technical replicates for each biological replicate (n=3)..</t>
+  </si>
+  <si>
+    <t>catalase mutants - NoC</t>
+  </si>
+  <si>
+    <t>catalase mutants - aceMHM</t>
+  </si>
+  <si>
+    <t>HOOH spike vibrio growth has 0 HOOH until 24 hrs. Vibriot cat mutants in HOOH - . Not in light. two sets of growth curve data for my vibrio WT and catalase/oxyR mutants without HOOH. One only goes through 24 hours, the other through 90 hours. I've also attached the cell count and HOOH data for when I add 1500nM HOOH at T24 of growth and then monitor it for 72 hours. (H reps, Hstart at T= 24) HOOH added at time 24hr.</t>
+  </si>
+  <si>
+    <t>Vibriot cat mutants in HOOH - .HOOH added at t = 24hr.  Not in light. two sets of growth curve data for my vibrio WT and catalase/oxyR mutants without HOOH. One only goes through 24 hours, the other through 90 hours. I've also attached the cell count and HOOH data for when I add 1500nM HOOH at T24 of growth and then monitor it for 72 hours. (H reps, Hstart at T= 24) HOOH added at time 24hr.</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1493,7 @@
   <dimension ref="A2:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1544,7 +1553,21 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="C4" s="1"/>
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -1554,13 +1577,13 @@
         <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
         <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>75</v>
@@ -1697,7 +1720,7 @@
         <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F12" t="s">
         <v>88</v>

--- a/data/ROS_metadata_MEGA.xlsx
+++ b/data/ROS_metadata_MEGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_lab/Projects/ROS_focused/HOOH_dynamics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E7302E-D1DC-9A4B-989D-3EA5260C5397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5756AEBF-46A7-DE40-A8B1-CFE4DE9EA655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="880" windowWidth="23220" windowHeight="14640" activeTab="1" xr2:uid="{7ACDE501-5141-0745-AE32-33FE23607C69}"/>
   </bookViews>
@@ -410,12 +410,6 @@
     <t>hepes array f2a</t>
   </si>
   <si>
-    <t>AMP-A derivative, AMP-PE (for Pico-Eukaryotes, propogation ), 10x addition of trace metal working stock,  and AMPA for assays</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> growth experiments including Pro (Vol1), Syn (Vol28,52,53,54), picoeuks and diatoms (Vol57-60), and Alteromonas (EZ55). They were all started at abundances close to environmental abundances and were exposed to HOOH at 0nM and 400nM.  In AMPA media. All experiments were carried out at 24 degrees C  -  gradual increase and decrease of cool white light to simulate sunrise and sunset with peak midday light intensity of 150 micro mol quanta m-2s-1 on a 14 hr:10 hr light:dark cycle. </t>
-  </si>
-  <si>
     <t>biomass_HOOOH_morris_2016</t>
   </si>
   <si>
@@ -606,6 +600,12 @@
   </si>
   <si>
     <t>Vibriot cat mutants in HOOH - .HOOH added at t = 24hr.  Not in light. two sets of growth curve data for my vibrio WT and catalase/oxyR mutants without HOOH. One only goes through 24 hours, the other through 90 hours. I've also attached the cell count and HOOH data for when I add 1500nM HOOH at T24 of growth and then monitor it for 72 hours. (H reps, Hstart at T= 24) HOOH added at time 24hr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time in days  growth experiments including Pro (Vol1), Syn (Vol28,52,53,54), picoeuks and diatoms (Vol57-60), and Alteromonas (EZ55). They were all started at abundances close to environmental abundances and were exposed to HOOH at 0nM and 400nM.  In AMPA media. All experiments were carried out at 24 degrees C  -  gradual increase and decrease of cool white light to simulate sunrise and sunset with peak midday light intensity of 150 micro mol quanta m-2s-1 on a 14 hr:10 hr light:dark cycle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMP-A derivative, AMP-PE (for Pico-Eukaryotes, propogation ), 10x addition of trace metal working stock,  and AMPA for assays. Time in days </t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1493,7 @@
   <dimension ref="A2:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1543,7 +1543,7 @@
         <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
@@ -1560,13 +1560,13 @@
         <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1577,13 +1577,13 @@
         <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
         <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>75</v>
@@ -1603,7 +1603,7 @@
         <v>79</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="F6" t="s">
         <v>82</v>
@@ -1612,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1629,7 +1629,7 @@
         <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1691,13 +1691,13 @@
         <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
         <v>88</v>
@@ -1714,13 +1714,13 @@
         <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s">
         <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
         <v>88</v>
@@ -1743,7 +1743,7 @@
         <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
         <v>87</v>
@@ -1763,7 +1763,7 @@
         <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
         <v>87</v>
@@ -1817,13 +1817,13 @@
         <v>2016</v>
       </c>
       <c r="C17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" t="s">
         <v>168</v>
-      </c>
-      <c r="D17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1860,7 +1860,7 @@
         <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
         <v>87</v>
@@ -1897,7 +1897,7 @@
         <v>109</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F21" t="s">
         <v>110</v>
@@ -1920,7 +1920,7 @@
         <v>89</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F22" t="s">
         <v>112</v>
@@ -1937,13 +1937,13 @@
         <v>2011</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="51">
@@ -1954,13 +1954,13 @@
         <v>2011</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1971,16 +1971,16 @@
         <v>2011</v>
       </c>
       <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" t="s">
         <v>138</v>
-      </c>
-      <c r="D25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="85">
@@ -1991,16 +1991,16 @@
         <v>2013</v>
       </c>
       <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" t="s">
         <v>134</v>
-      </c>
-      <c r="D26" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2017,7 +2017,7 @@
         <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2051,13 +2051,13 @@
         <v>2013</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D29" t="s">
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G29" t="s">
         <v>87</v>
@@ -2071,13 +2071,13 @@
         <v>2013</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D30" t="s">
         <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s">
         <v>87</v>
@@ -2091,13 +2091,13 @@
         <v>2013</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
         <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G31" t="s">
         <v>87</v>
@@ -2105,19 +2105,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B32">
         <v>2013</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
         <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2128,38 +2128,38 @@
         <v>2016</v>
       </c>
       <c r="C33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" t="s">
         <v>118</v>
-      </c>
-      <c r="D33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B34">
         <v>2020</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" t="s">
         <v>123</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B35">
         <v>2018</v>
@@ -2168,10 +2168,10 @@
         <v>89</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -2179,32 +2179,32 @@
     </row>
     <row r="36" spans="1:7" ht="409.6">
       <c r="A36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B36">
         <v>2023</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B37">
         <v>2023</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2233,10 +2233,10 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data/ROS_metadata_MEGA.xlsx
+++ b/data/ROS_metadata_MEGA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_lab/Projects/ROS_focused/HOOH_dynamics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5756AEBF-46A7-DE40-A8B1-CFE4DE9EA655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08217954-94C6-184A-B734-0C20BFB69FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="880" windowWidth="23220" windowHeight="14640" activeTab="1" xr2:uid="{7ACDE501-5141-0745-AE32-33FE23607C69}"/>
+    <workbookView xWindow="820" yWindow="500" windowWidth="23220" windowHeight="14640" activeTab="1" xr2:uid="{7ACDE501-5141-0745-AE32-33FE23607C69}"/>
   </bookViews>
   <sheets>
     <sheet name="old" sheetId="1" r:id="rId1"/>
@@ -1493,7 +1493,7 @@
   <dimension ref="A2:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/ROS_metadata_MEGA.xlsx
+++ b/data/ROS_metadata_MEGA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_lab/Projects/ROS_focused/HOOH_dynamics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08217954-94C6-184A-B734-0C20BFB69FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF7ABFF-B183-E74F-AE89-7624D0C3328F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="500" windowWidth="23220" windowHeight="14640" activeTab="1" xr2:uid="{7ACDE501-5141-0745-AE32-33FE23607C69}"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="23220" windowHeight="14640" activeTab="1" xr2:uid="{7ACDE501-5141-0745-AE32-33FE23607C69}"/>
   </bookViews>
   <sheets>
     <sheet name="old" sheetId="1" r:id="rId1"/>
@@ -1493,7 +1493,7 @@
   <dimension ref="A2:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
